--- a/datos/Dashboard.xlsx
+++ b/datos/Dashboard.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecc208eac68a708d/Hackio/Jupyter/ProyectoMinimalism/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{398DAA4B-A21F-C14B-80C0-76EB1160E847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43EAD33A-62E6-D542-BB80-3341FB86377A}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{398DAA4B-A21F-C14B-80C0-76EB1160E847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AEFFE6E-A581-7A46-8B1C-A662EED7676F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="27640" windowHeight="16560" xr2:uid="{1D19778D-D66C-BD40-92ED-913DF7535432}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
-    <sheet name="KPIS" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
+    <sheet name="KPIS" sheetId="3" r:id="rId3"/>
+    <sheet name="minimalism_ordenado" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Datos">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="45">
   <si>
     <t>Gel</t>
   </si>
@@ -162,17 +164,37 @@
   <si>
     <t>ESTIMACIÓN KPIS PRIMER AÑO</t>
   </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Average of precio</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@"/>
+    <numFmt numFmtId="167" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +259,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -591,11 +620,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -609,123 +639,125 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="9" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{9537718C-3DED-7E4E-83C0-CDE23B1951C4}"/>
   </cellStyles>
@@ -1396,6 +1428,478 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>Accesorios</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Camisetas</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Hogar</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Jerseys</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Pantalones</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Sudaderas</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>(blank)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>31.705882352941178</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>47.680851063829785</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32.131999999999998</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>71.36363636363636</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>57.142857142857146</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8562-B84B-B441-A627C5B9E92C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="663645344"/>
+        <c:axId val="663584272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="663645344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663584272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="663584272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="663645344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
@@ -1736,7 +2240,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2042,7 +2546,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2710,7 +3214,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3062,12 +3566,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
-  <a:schemeClr val="accent1"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3104,6 +3602,12 @@
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
   </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
@@ -3187,8 +3691,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3270,30 +3814,7 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3303,29 +3824,15 @@
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -3341,15 +3848,18 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -3363,15 +3873,18 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -3789,7 +4302,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3871,7 +4384,30 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3881,15 +4417,29 @@
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -3905,18 +4455,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -3930,18 +4477,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -4929,6 +5473,576 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5499,6 +6613,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{220C5006-A710-CB40-BAA5-E17104365628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8889,6 +10046,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ana Garcia" refreshedDate="45489.699680439815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="950" xr:uid="{6A2F7521-D086-5541-BEEF-E6E791D4FB40}">
   <cacheSource type="worksheet">
@@ -9056,6 +10217,35 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Franco" refreshedDate="45604.595271412036" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="147" xr:uid="{EAF83C0F-C969-BC47-97AE-C30C375B7B74}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B1048576" sheet="minimalism_ordenado" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="precio" numFmtId="167">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="8" maxValue="154"/>
+    </cacheField>
+    <cacheField name="categoria" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="Camisetas"/>
+        <s v="Hogar"/>
+        <s v="Pantalones"/>
+        <s v="Accesorios"/>
+        <s v="Sudaderas"/>
+        <s v="Jerseys"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="950">
   <r>
@@ -26161,8 +27351,677 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="147">
+  <r>
+    <n v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="19.98"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="35.979999999999997"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{153E89B7-810D-2840-B999-46AFB87E37B2}" name="TablaDinámica12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Productos">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D56F8EC0-3BE8-514B-BCCE-CD611F2D9D53}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of precio" fld="0" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{153E89B7-810D-2840-B999-46AFB87E37B2}" name="TablaDinámica12" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Productos">
   <location ref="N10:Q16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -26662,13 +28521,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649A0FFF-EB55-E345-BF4F-A8E62AC89ADD}">
+  <dimension ref="A3:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>31.705882352941178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>47.680851063829785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>32.131999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>71.36363636363636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>57.142857142857146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>44.301095890410956</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE9A401-5CFC-4248-9501-8B20237ACC5D}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="N10:AA32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
@@ -26885,7 +28833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4313ECD2-A3C9-DD47-9C8C-597D180C2A2E}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
@@ -26922,8 +28870,8 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
@@ -26968,25 +28916,25 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="20"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="13"/>
       <c r="T3" s="10"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
@@ -26998,23 +28946,23 @@
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="20"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="13"/>
       <c r="T4" s="10"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -27042,7 +28990,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="20"/>
+      <c r="S5" s="13"/>
       <c r="T5" s="10"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -27054,29 +29002,29 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="11"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="23"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="14"/>
       <c r="T6" s="10"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -27088,31 +29036,31 @@
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="55">
+      <c r="D7" s="59"/>
+      <c r="E7" s="56">
         <v>100</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="54"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="51">
+      <c r="J7" s="59"/>
+      <c r="K7" s="60">
         <v>1000</v>
       </c>
-      <c r="L7" s="50"/>
+      <c r="L7" s="57"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="23"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="14"/>
       <c r="T7" s="10"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -27127,33 +29075,33 @@
       <c r="C8" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="48">
+      <c r="D8" s="46"/>
+      <c r="E8" s="50">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="40">
+      <c r="J8" s="46"/>
+      <c r="K8" s="47">
         <v>500</v>
       </c>
-      <c r="L8" s="39"/>
+      <c r="L8" s="48"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="45">
+      <c r="P8" s="23"/>
+      <c r="Q8" s="44">
         <f>E10-K11</f>
         <v>1.7962962962962972</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="14"/>
       <c r="T8" s="10"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
@@ -27165,31 +29113,31 @@
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="44">
+      <c r="D9" s="41"/>
+      <c r="E9" s="52">
         <v>0.05</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="40">
+      <c r="J9" s="46"/>
+      <c r="K9" s="47">
         <v>500</v>
       </c>
-      <c r="L9" s="39"/>
+      <c r="L9" s="48"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="23"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="14"/>
       <c r="T9" s="10"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
@@ -27201,32 +29149,32 @@
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="30">
+      <c r="D10" s="32"/>
+      <c r="E10" s="33">
         <f>IFERROR(E7*E8*E9,"")</f>
         <v>5.5000000000000009</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="38"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="35">
+      <c r="J10" s="41"/>
+      <c r="K10" s="42">
         <v>270</v>
       </c>
-      <c r="L10" s="34"/>
+      <c r="L10" s="43"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="20"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="13"/>
       <c r="T10" s="10"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
@@ -27244,24 +29192,24 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="30">
+      <c r="J11" s="32"/>
+      <c r="K11" s="33">
         <f>IFERROR(K7/K10,"")</f>
         <v>3.7037037037037037</v>
       </c>
-      <c r="L11" s="11"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="29" t="s">
+      <c r="O11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="20"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="13"/>
       <c r="T11" s="10"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -27273,22 +29221,22 @@
     <row r="12" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="13"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="25"/>
       <c r="S12" s="9"/>
       <c r="T12" s="10"/>
       <c r="U12" s="9"/>
@@ -27306,22 +29254,22 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="21">
+      <c r="P13" s="23"/>
+      <c r="Q13" s="30">
         <f>E10/K11</f>
         <v>1.4850000000000003</v>
       </c>
-      <c r="R13" s="17"/>
+      <c r="R13" s="23"/>
       <c r="S13" s="9"/>
       <c r="T13" s="10"/>
       <c r="U13" s="9"/>
@@ -27346,10 +29294,10 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="13"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="25"/>
       <c r="S14" s="9"/>
       <c r="T14" s="10"/>
       <c r="U14" s="9"/>
@@ -27373,11 +29321,11 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="9"/>
       <c r="T15" s="10"/>
       <c r="U15" s="9"/>
@@ -27431,14 +29379,14 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="16" t="s">
+      <c r="Q17" s="23"/>
+      <c r="R17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="S17" s="11"/>
+      <c r="S17" s="27"/>
       <c r="T17" s="10"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
@@ -27460,15 +29408,15 @@
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="12" t="s">
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="11"/>
+      <c r="S18" s="27"/>
       <c r="T18" s="10"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
@@ -54947,20 +56895,14 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="P17:Q18"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="O13:P14"/>
-    <mergeCell ref="Q13:R14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="O11:R12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C3:R4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="O6:R7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="Q8:R9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
@@ -54971,16 +56913,1216 @@
     <mergeCell ref="O8:P9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C3:R4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="O6:R7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="O11:R12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="P17:Q18"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="O13:P14"/>
+    <mergeCell ref="Q13:R14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8B0A50-FD84-AB41-A651-1B6918BFE68D}">
+  <dimension ref="A1:B147"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="62">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="62">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="62">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="62">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="62">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="62">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="62">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="62">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="62">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="62">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="62">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="62">
+        <v>19.98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="62">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="62">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="62">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="62">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="62">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="62">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="62">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="62">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="62">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="62">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="62">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="62">
+        <v>154</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="62">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="62">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="62">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="62">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="62">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="62">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="62">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="62">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="62">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="62">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="62">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="62">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="62">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="62">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="62">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="62">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="62">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="62">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="62">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="62">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="62">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="62">
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="62">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="62">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="62">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="62">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="62">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="62">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="62">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="62">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="62">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="62">
+        <v>154</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="62">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="62">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="62">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="62">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="62">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="62">
+        <v>140</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="62">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="62">
+        <v>18</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="62">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="62">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="62">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="62">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="62">
+        <v>55</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="62">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="62">
+        <v>90</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="62">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="62">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="62">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="62">
+        <v>55</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="62">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="62">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="62">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="62">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="62">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="62">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="62">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="62">
+        <v>55</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="62">
+        <v>50</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="62">
+        <v>90</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="62">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="62">
+        <v>55</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="62">
+        <v>68</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="62">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="62">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="62">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="62">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="62">
+        <v>25</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="62">
+        <v>115</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="62">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="62">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="62">
+        <v>28</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="62">
+        <v>32</v>
+      </c>
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="62">
+        <v>55</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="62">
+        <v>72</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="62">
+        <v>65</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="62">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="62">
+        <v>30</v>
+      </c>
+      <c r="B104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="62">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="62">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="62">
+        <v>70</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="62">
+        <v>33</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="62">
+        <v>50</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="62">
+        <v>50</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="62">
+        <v>25</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="62">
+        <v>55</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="62">
+        <v>55</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="62">
+        <v>25</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="62">
+        <v>43</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="62">
+        <v>15</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="62">
+        <v>13</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="62">
+        <v>38</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="62">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="62">
+        <v>55</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="62">
+        <v>31</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="62">
+        <v>40</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="62">
+        <v>75</v>
+      </c>
+      <c r="B123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="62">
+        <v>12</v>
+      </c>
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="62">
+        <v>33</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="62">
+        <v>30</v>
+      </c>
+      <c r="B126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="62">
+        <v>25</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="62">
+        <v>25</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="62">
+        <v>30</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="62">
+        <v>70</v>
+      </c>
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="62">
+        <v>80</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="62">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="62">
+        <v>23</v>
+      </c>
+      <c r="B133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="62">
+        <v>24</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="62">
+        <v>154</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="62">
+        <v>55</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="62">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="62">
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="62">
+        <v>65</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="62">
+        <v>23</v>
+      </c>
+      <c r="B140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="62">
+        <v>50</v>
+      </c>
+      <c r="B141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="62">
+        <v>75</v>
+      </c>
+      <c r="B142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="62">
+        <v>25</v>
+      </c>
+      <c r="B143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="62">
+        <v>75</v>
+      </c>
+      <c r="B144" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="62">
+        <v>35</v>
+      </c>
+      <c r="B145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="62">
+        <v>25</v>
+      </c>
+      <c r="B146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="62">
+        <v>15</v>
+      </c>
+      <c r="B147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>